--- a/MA.xlsx
+++ b/MA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF5651D-8CD8-4B56-8E40-A341BB7635D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD87083E-0CB2-4490-ACA1-9C3D954D3484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26580" yWindow="1815" windowWidth="25965" windowHeight="16125" xr2:uid="{E7BFF71A-2904-4F34-A901-1B8DEA033DF8}"/>
+    <workbookView xWindow="52440" yWindow="2670" windowWidth="24340" windowHeight="16340" xr2:uid="{E7BFF71A-2904-4F34-A901-1B8DEA033DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Price</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>FCF</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -170,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -180,6 +201,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -519,9 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10F05BA-E2E2-4BF2-B869-5C1F5041633C}">
   <dimension ref="I2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -530,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>586</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="9:11" x14ac:dyDescent="0.25">
@@ -538,10 +569,11 @@
         <v>1</v>
       </c>
       <c r="J3" s="3">
-        <v>927</v>
+        <f>897.274172+6.737665</f>
+        <v>904.01183700000001</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="9:11" x14ac:dyDescent="0.25">
@@ -550,7 +582,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>543222</v>
+        <v>499014.53402399999</v>
       </c>
     </row>
     <row r="5" spans="9:11" x14ac:dyDescent="0.25">
@@ -558,11 +590,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="3">
-        <f>8442+492+330</f>
-        <v>9264</v>
+        <v>9031</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="9:11" x14ac:dyDescent="0.25">
@@ -570,11 +601,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="3">
-        <f>750+17476</f>
-        <v>18226</v>
+        <v>18970</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="9:11" x14ac:dyDescent="0.25">
@@ -583,7 +613,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>552184</v>
+        <v>508953.53402399999</v>
       </c>
     </row>
   </sheetData>
@@ -593,318 +623,587 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205891AB-6F07-4B83-AF2A-CD982404D2A5}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2">
         <v>2022</v>
       </c>
-      <c r="D2">
+      <c r="M2">
         <v>2023</v>
       </c>
-      <c r="E2">
+      <c r="N2">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="N3" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="N4" s="3">
         <v>3634</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="N5" s="3">
         <v>4865</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="N6" s="3">
         <v>1258</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="N7" s="3">
         <v>159.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="N9" s="3">
         <f>1070+1035+153</f>
         <v>2258</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>6961</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <v>8133</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="L11" s="4">
         <v>22237</v>
       </c>
-      <c r="D11" s="4">
+      <c r="M11" s="4">
         <v>25098</v>
       </c>
-      <c r="E11" s="4">
+      <c r="N11" s="4">
         <v>28167</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
+        <v>2418</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
+        <v>2766</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="L12" s="3">
         <v>8078</v>
       </c>
-      <c r="D12">
+      <c r="M12" s="3">
         <v>8927</v>
       </c>
-      <c r="E12">
+      <c r="N12" s="3">
         <v>10193</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
+        <v>184</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7">
+        <v>213</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="L13" s="3">
         <v>789</v>
       </c>
-      <c r="D13">
+      <c r="M13" s="3">
         <v>825</v>
       </c>
-      <c r="E13">
+      <c r="N13" s="3">
         <v>815</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3">
-        <f>+C11-C12-C13</f>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
+        <f>+D11-D12-D13</f>
+        <v>4359</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7">
+        <f>+H11-H12-H13</f>
+        <v>5154</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="L14" s="3">
+        <f>+L11-L12-L13</f>
         <v>13370</v>
       </c>
-      <c r="D14" s="3">
-        <f>+D11-D12-D13</f>
+      <c r="M14" s="3">
+        <f>+M11-M12-M13</f>
         <v>15346</v>
       </c>
-      <c r="E14" s="3">
-        <f>+E11-E12-E13</f>
+      <c r="N14" s="3">
+        <f>+N11-N12-N13</f>
         <v>17159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
+        <f>60-153+9</f>
+        <v>-84</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7">
+        <f>70-195+16</f>
+        <v>-109</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="L15" s="3">
         <f>61-471</f>
         <v>-410</v>
       </c>
-      <c r="D15" s="3">
+      <c r="M15" s="3">
         <f>274-575</f>
         <v>-301</v>
       </c>
-      <c r="E15" s="3">
+      <c r="N15" s="3">
         <f>327-646</f>
         <v>-319</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3">
-        <f t="shared" ref="C16:D16" si="0">+C14+C15</f>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
+        <f>+D14+D15</f>
+        <v>4275</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7">
+        <f>+H14+H15</f>
+        <v>5045</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="L16" s="3">
+        <f t="shared" ref="L16:M16" si="0">+L14+L15</f>
         <v>12960</v>
       </c>
-      <c r="D16" s="3">
+      <c r="M16" s="3">
         <f t="shared" si="0"/>
         <v>15045</v>
       </c>
-      <c r="E16" s="3">
-        <f>+E14+E15</f>
+      <c r="N16" s="3">
+        <f>+N14+N15</f>
         <v>16840</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7">
+        <v>681</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
+        <v>971</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="L17" s="3">
         <v>1802</v>
       </c>
-      <c r="D17" s="3">
+      <c r="M17" s="3">
         <v>2444</v>
       </c>
-      <c r="E17" s="3">
+      <c r="N17" s="3">
         <v>2380</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3">
-        <f>+C16-C17</f>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
+        <f>+D16-D17</f>
+        <v>3594</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7">
+        <f>+H16-H17</f>
+        <v>4074</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="L18" s="3">
+        <f>+L16-L17</f>
         <v>11158</v>
       </c>
-      <c r="D18" s="3">
-        <f>+D16-D17</f>
+      <c r="M18" s="3">
+        <f>+M16-M17</f>
         <v>12601</v>
       </c>
-      <c r="E18" s="3">
-        <f>+E16-E17</f>
+      <c r="N18" s="3">
+        <f>+N16-N17</f>
         <v>14460</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" ref="C19:D19" si="1">+C18/C20</f>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
+        <f>+D18/D20</f>
+        <v>3.8645161290322583</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <f>+H18/H20</f>
+        <v>4.4818481848184817</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
+        <f t="shared" ref="L19:M19" si="1">+L18/L20</f>
         <v>11.49124613800206</v>
       </c>
-      <c r="D19" s="1">
+      <c r="M19" s="1">
         <f t="shared" si="1"/>
         <v>13.32029598308668</v>
       </c>
-      <c r="E19" s="1">
-        <f>+E18/E20</f>
+      <c r="N19" s="1">
+        <f>+N18/N20</f>
         <v>15.598705501618124</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
+        <v>930</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7">
+        <v>909</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
         <v>971</v>
       </c>
-      <c r="D20" s="3">
+      <c r="M20" s="3">
         <v>946</v>
       </c>
-      <c r="E20" s="3">
+      <c r="N20" s="3">
         <v>927</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="2">
-        <f>+D11/C11-1</f>
+      <c r="H22" s="10">
+        <f>+H11/D11-1</f>
+        <v>0.1683666139922424</v>
+      </c>
+      <c r="M22" s="2">
+        <f>+M11/L11-1</f>
         <v>0.1286594414714215</v>
       </c>
-      <c r="E22" s="2">
-        <f>+E11/D11-1</f>
+      <c r="N22" s="2">
+        <f>+N11/M11-1</f>
         <v>0.12228065981353087</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="2">
-        <f>+C14/C11</f>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10">
+        <f>+D16/D11</f>
+        <v>0.6141359000143658</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f>+H16/H11</f>
+        <v>0.62031230788147051</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2">
+        <f>+L14/L11</f>
         <v>0.60125016863785585</v>
       </c>
-      <c r="D23" s="2">
-        <f>+D14/D11</f>
+      <c r="M23" s="2">
+        <f>+M14/M11</f>
         <v>0.61144314287991075</v>
       </c>
-      <c r="E23" s="2">
-        <f>+E14/E11</f>
+      <c r="N23" s="2">
+        <f>+N14/N11</f>
         <v>0.6091880569460717</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3">
         <v>11195</v>
       </c>
-      <c r="D26" s="3">
+      <c r="M26" s="3">
         <v>11980</v>
       </c>
-      <c r="E26" s="3">
+      <c r="N26" s="3">
         <v>14780</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
         <f>-442-655</f>
         <v>-1097</v>
       </c>
-      <c r="D27" s="3">
+      <c r="M27" s="3">
         <f>-371-717</f>
         <v>-1088</v>
       </c>
-      <c r="E27" s="3">
+      <c r="N27" s="3">
         <f>-474-720</f>
         <v>-1194</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3">
-        <f>+C26+C27</f>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3">
+        <f>+L26+L27</f>
         <v>10098</v>
       </c>
-      <c r="D28" s="3">
-        <f>+D26+D27</f>
+      <c r="M28" s="3">
+        <f>+M26+M27</f>
         <v>10892</v>
       </c>
-      <c r="E28" s="3">
-        <f>+E26+E27</f>
+      <c r="N28" s="3">
+        <f>+N26+N27</f>
         <v>13586</v>
       </c>
     </row>
